--- a/report/reliability/by-area-conhecimento/Ciências Humanas.xlsx
+++ b/report/reliability/by-area-conhecimento/Ciências Humanas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9153490654331462</v>
+        <v>0.9018013835605256</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9173369559933311</v>
+        <v>0.904443348475593</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9572900673726208</v>
+        <v>0.9319949362050701</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3949597512363357</v>
+        <v>0.4213219599720461</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>11.09730432766696</v>
+        <v>9.464996251407806</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.0181229908850519</v>
+        <v>0.021136922888900955</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.623529411764706</v>
+        <v>2.5418803418803417</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7204818212378388</v>
+        <v>0.7653671424290042</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.4215009901028059</v>
+        <v>0.43147952786367394</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.9061614958501125</v>
+        <v>0.9010761677678583</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.908879517978277</v>
+        <v>0.9034790425520787</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9499905845797717</v>
+        <v>0.9282040434179076</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3840107915561632</v>
+        <v>0.43821393172442463</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.97448101472513</v>
+        <v>9.360444264548027</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02038855179116576</v>
+        <v>0.021358088641176325</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.02603738688379326</v>
+        <v>0.020464160956620077</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.4080880725006415</v>
+        <v>0.44565163461009527</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.9073878498771999</v>
+        <v>0.8880869217781329</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9098482828841101</v>
+        <v>0.8917517234786567</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9502390147211394</v>
+        <v>0.9218871119203029</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3867949071352506</v>
+        <v>0.4070566886077011</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>10.092412124713084</v>
+        <v>8.238022369832665</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.01989641588556627</v>
+        <v>0.02451251537906645</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.02418710606492184</v>
+        <v>0.023546529715676195</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.42054574359198155</v>
+        <v>0.42609709043266264</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.9130835615364582</v>
+        <v>0.8901165817970011</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9148146867095588</v>
+        <v>0.893643435126841</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9530516502550204</v>
+        <v>0.9225833633197029</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.40162562119943274</v>
+        <v>0.4118320138500678</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>10.739112780984652</v>
+        <v>8.40233450744297</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.018621864009386445</v>
+        <v>0.023743626013289623</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.024042578815033935</v>
+        <v>0.02285047447945189</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.42316224217175114</v>
+        <v>0.42947919630744974</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.9047568774210492</v>
+        <v>0.8852414418499206</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.9074375051097424</v>
+        <v>0.8888822793789987</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9494955296030098</v>
+        <v>0.9156702653410783</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.37992936144649364</v>
+        <v>0.3999839394164222</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>9.803511737508835</v>
+        <v>7.999464661543819</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.020517331830141133</v>
+        <v>0.02488022418233187</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.024177410715234944</v>
+        <v>0.02192770508573232</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.40007260430753444</v>
+        <v>0.4225252603512198</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9073995210302446</v>
+        <v>0.9023665341605676</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.909377141963922</v>
+        <v>0.9051542028393524</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9525924773393137</v>
+        <v>0.9275290969451815</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3854366202210089</v>
+        <v>0.44298562782248474</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>10.034743569904718</v>
+        <v>9.543429755840684</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.01983540580299433</v>
+        <v>0.021091660677381094</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.02498832147242978</v>
+        <v>0.019328806434996567</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.41103129037935204</v>
+        <v>0.44565163461009527</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.9072997747282324</v>
+        <v>0.8886257560956355</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.909327264268394</v>
+        <v>0.8910543679305172</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9503949740389751</v>
+        <v>0.9200719028745583</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3852933003040217</v>
+        <v>0.40531913047570267</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>10.028673524972612</v>
+        <v>8.178890250159135</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.01988778072999868</v>
+        <v>0.024028344611604236</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.023837317940925817</v>
+        <v>0.021661350956486112</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.4080880725006415</v>
+        <v>0.4279054532668721</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.9125395893250615</v>
+        <v>0.896621354372671</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9144562950535128</v>
+        <v>0.8994478982991911</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9544922975388949</v>
+        <v>0.9252507117646788</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.40052298905430905</v>
+        <v>0.4270734431341049</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>10.689930902870778</v>
+        <v>8.945092972551523</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.018691346777611757</v>
+        <v>0.02230139710965823</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.025269593925870564</v>
+        <v>0.024420785435406937</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.42464963329363836</v>
+        <v>0.4425452056608199</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.9110023729313069</v>
+        <v>0.8896025043092</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.913022519863905</v>
+        <v>0.8919495151585353</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9518133681686611</v>
+        <v>0.9201926535975276</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3961632724549255</v>
+        <v>0.40755173132017714</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>10.497228919891514</v>
+        <v>8.254933020126971</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.01905203162648367</v>
+        <v>0.023787047237236514</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.025245476945086717</v>
+        <v>0.022254627048477922</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.42054574359198155</v>
+        <v>0.42609709043266264</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.910894827224096</v>
+        <v>0.8971145269715467</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9128983174832578</v>
+        <v>0.8996309544856725</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9531220665414865</v>
+        <v>0.9262155778107661</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3957894336215178</v>
+        <v>0.42756916057008043</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>10.48083448109955</v>
+        <v>8.963231142386961</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.019026932699623487</v>
+        <v>0.022101592518795753</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.026631244768107246</v>
+        <v>0.022703519206100444</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.4225252603512198</v>
+        <v>0.436762853529151</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9150182504966288</v>
+        <v>0.8957935902327355</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9170487155472153</v>
+        <v>0.8986774960469253</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9553736358832913</v>
+        <v>0.9245329244117787</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.40861795378865373</v>
+        <v>0.4249975361472883</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>11.055268421662516</v>
+        <v>8.869475792496482</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.018232604101352513</v>
+        <v>0.02241253202224775</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.02425270729642673</v>
+        <v>0.023483790347975295</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.4279054532668721</v>
+        <v>0.43818956310620144</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9085327659662582</v>
+        <v>0.8937945041527133</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9108374345540082</v>
+        <v>0.8967278371490708</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9540315356823901</v>
+        <v>0.9255926024005061</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3896733290261863</v>
+        <v>0.4198176234295259</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>10.21546912651059</v>
+        <v>8.683151513379988</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.019609009422516085</v>
+        <v>0.022867672208533977</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.02754041404009574</v>
+        <v>0.02632318057436929</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.42054574359198155</v>
+        <v>0.43147952786367394</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.9108128841996194</v>
+        <v>0.902265986034013</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.9131719431803619</v>
+        <v>0.9054556484306588</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9495714083701255</v>
+        <v>0.9299795322049702</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.39661382595206374</v>
+        <v>0.44385344783721475</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>10.517014622096518</v>
+        <v>9.577046469736226</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.019066500315431098</v>
+        <v>0.021111125433640514</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.02573658783187222</v>
+        <v>0.02166682623850293</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.4225252603512198</v>
+        <v>0.4488073227269176</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.9086342637777345</v>
+        <v>0.8954271994957219</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9101232504128818</v>
+        <v>0.897150306277912</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9505080229905757</v>
+        <v>0.9263265831561259</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.38759140954541277</v>
+        <v>0.4209312053014049</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>10.126348077716047</v>
+        <v>8.722926377419443</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.019573033659971123</v>
+        <v>0.022735806194713378</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.02568889544001809</v>
+        <v>0.02528510138200411</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.4166808377520953</v>
+        <v>0.4279054532668721</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9179737997966895</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9201180456402006</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9543766201190144</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.4185723660381772</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>11.518471887854197</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.01762422125147919</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.02119249802053875</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.43147952786367394</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9108345219327878</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9130329098437774</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9515232255861348</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.39619457282700016</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>10.49860249668764</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.01911105695519882</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.02573277868840354</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.4215009901028059</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9109811261893621</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9124464906974287</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9542637613039728</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.39443455218614726</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>10.42158672982661</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.019181446118428883</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.026540678457481513</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.42054574359198155</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9143744822890627</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9165539595346425</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9545978481227133</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.407051464660942</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>10.983792093947798</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.018330746343991358</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.02550061143937135</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.42767083347324025</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>45.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.5748893567950907</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.5568709421453133</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.5192487340153572</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.4799189209180835</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.6222222222222222</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.2665071669913297</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>45.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.8010465161102469</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.7886334827357203</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.7758300193404093</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.7398405563817113</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.4</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.4206272622267313</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>45.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7598819610579461</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.7531123197698488</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.7407841453626268</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.705283959938629</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.1259115274642</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>45.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.8455717120292874</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.8412439885942993</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.8455298034833841</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.8072836207101707</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>2.1555555555555554</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.147240871029975</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7865674697582685</v>
+        <v>0.5128392121516208</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.7739492324739848</v>
+        <v>0.5213767744980429</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7686338854327424</v>
+        <v>0.48479949345991336</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.7356193554553347</v>
+        <v>0.4243167978285864</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.4</v>
+        <v>3.511111111111111</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.4206272622267313</v>
+        <v>1.1000459127241053</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.7482159499509036</v>
+        <v>0.7962239213637204</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.7439984888377612</v>
+        <v>0.8015582747523583</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.7398951723808935</v>
+        <v>0.7984104882997798</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.7032580009855093</v>
+        <v>0.7532297564650255</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.2222222222222223</v>
+        <v>2.1777777777777776</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1259115274642</v>
+        <v>1.0288760171108366</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5951242429540611</v>
+        <v>0.6253665182973721</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5844537780452375</v>
+        <v>0.6397392475803696</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5680225591841859</v>
+        <v>0.6097193658587189</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5219222279225849</v>
+        <v>0.5627682966753293</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.6222222222222222</v>
+        <v>2.8222222222222224</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.2665071669913297</v>
+        <v>0.9363587329478359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.8229394211820831</v>
+        <v>0.7750062206653796</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.8178561262114742</v>
+        <v>0.7849511172480422</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.8179501002696145</v>
+        <v>0.7784200315171824</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.7888714838873786</v>
+        <v>0.7276005569993264</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.1555555555555554</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.147240871029975</v>
+        <v>1.0420453856999636</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.7532325985797661</v>
+        <v>0.632171531821272</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.758610562940743</v>
+        <v>0.6360518631752007</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.749907558775618</v>
+        <v>0.6068897172389428</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.7126316273596948</v>
+        <v>0.5525289701603467</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2222222222222223</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.0420453856999636</v>
+        <v>1.1793680896603447</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7578240412666798</v>
+        <v>0.6589359615034156</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7601523588790617</v>
+        <v>0.6551808409040017</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7571747133731571</v>
+        <v>0.628509256557707</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.7184031615306292</v>
+        <v>0.5820950599697611</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1777777777777776</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.0288760171108366</v>
+        <v>1.1984838907401452</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5969298935925973</v>
+        <v>0.696835485619125</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5963155890101706</v>
+        <v>0.6937115198542461</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.575023027838068</v>
+        <v>0.660318418769443</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5293960731697369</v>
+        <v>0.6248874763735961</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.8</v>
+        <v>2.688888888888889</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1793680896603447</v>
+        <v>1.2214414402332974</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.6446943952829449</v>
+        <v>0.5158885277738285</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.6432162116623125</v>
+        <v>0.5149215123737417</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.630660663079085</v>
+        <v>0.4668707615533208</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.5818126868926491</v>
+        <v>0.4273361302573108</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.1333333333333333</v>
+        <v>2.311111111111111</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.1984838907401452</v>
+        <v>1.1041702401314388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.6377040118465406</v>
+        <v>0.6710720620053192</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.6472378662030799</v>
+        <v>0.6854281629855001</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.6310803335368083</v>
+        <v>0.6504414023346924</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.5888924120435951</v>
+        <v>0.6242196993229844</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.8222222222222224</v>
+        <v>2.977777777777778</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9363587329478359</v>
+        <v>0.7830270194133233</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.5046916879666409</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.5092322023419695</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.48053892630482337</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.43315098151760084</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.511111111111111</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.1000459127241053</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.7161307173498825</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.7130332240406123</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.6913362739174862</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6619560603407466</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.688888888888889</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.2214414402332974</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.6395660142839266</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.6383692820346218</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.6314664113941427</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.5866658714036652</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.0125475422184014</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.7253442670522435</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.7354299367016386</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.7279873630141054</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6867464359446515</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.9183868157994993</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.40179028940437567</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.402145394748841</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.37706686383049987</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.3228329312293273</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.7333333333333334</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>1.0954451150103321</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6398496275147674</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6428794909360718</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.629853189036282</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.5844132507239853</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.7111111111111112</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.057918673240963</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6507274981839951</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6618133051083719</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.6370816555635219</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.6114846243149618</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.977777777777778</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.7830270194133233</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5270057952286713</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5260840581433028</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5002892292684928</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.4571695797954435</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.311111111111111</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.1041702401314388</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.022222222222222223</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.2</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.37777777777777777</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.24444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D53" t="n" s="111">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="n" s="112">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F53" t="n" s="113">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.08888888888888889</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.3333333333333333</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.26666666666666666</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.28888888888888886</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="E54" t="n" s="112">
         <v>0.06666666666666667</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.044444444444444446</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.5555555555555556</v>
+        <v>0.2</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.08888888888888889</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.08888888888888889</v>
+        <v>0.2</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.15555555555555556</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,19 +3577,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.37777777777777777</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.24444444444444444</v>
+        <v>0.2</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.26666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="E56" t="n" s="112">
-        <v>0.06666666666666667</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="F56" t="n" s="113">
         <v>0.044444444444444446</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.24444444444444444</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D57" t="n" s="111">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E57" t="n" s="112">
         <v>0.2</v>
       </c>
-      <c r="E57" t="n" s="112">
-        <v>0.06666666666666667</v>
-      </c>
       <c r="F57" t="n" s="113">
-        <v>0.044444444444444446</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.022222222222222223</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.2</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.2</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.2</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.022222222222222223</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.2</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.022222222222222223</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.2</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.4</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.783937823834197</v>
+        <v>0.8534531693472092</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7894228192191415</v>
+        <v>0.8615607186602091</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.7402333362635034</v>
+        <v>0.8102515754544797</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5554799961009435</v>
+        <v>0.6747397472569269</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>3.7488526358450502</v>
+        <v>6.223383351330465</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.05745771524961665</v>
+        <v>0.03734889597066361</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.0203097706998453</v>
+        <v>0.002615222992108903</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.522414127217783</v>
+        <v>0.6962400365071284</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7734073119984148</v>
+        <v>0.783937823834197</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7746693014801328</v>
+        <v>0.7894228192191415</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7086661969277359</v>
+        <v>0.7402333362635035</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.534011109043742</v>
+        <v>0.5554799961009435</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.437921714922616</v>
+        <v>3.7488526358450502</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.05715318724432909</v>
+        <v>0.05745771524961665</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.008737758648827679</v>
+        <v>0.0203097706998453</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5532655610035561</v>
+        <v>0.522414127217783</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8534531693472092</v>
+        <v>0.7734073119984148</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8615607186602091</v>
+        <v>0.7746693014801328</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.8102515754544797</v>
+        <v>0.7086661969277357</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6747397472569269</v>
+        <v>0.534011109043742</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>6.223383351330465</v>
+        <v>3.437921714922616</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.03734889597066361</v>
+        <v>0.05715318724432909</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.002615222992108903</v>
+        <v>0.008737758648827679</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6962400365071284</v>
+        <v>0.5532655610035561</v>
       </c>
     </row>
     <row r="14">
@@ -4188,7 +3864,7 @@
         <v>0.8123303169711094</v>
       </c>
       <c r="D14" t="n" s="174">
-        <v>0.7537657241602043</v>
+        <v>0.753765724160204</v>
       </c>
       <c r="E14" t="n" s="175">
         <v>0.5906399082428225</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>45.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8756580344743565</v>
+        <v>0.7603692064836476</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8615645142181971</v>
+        <v>0.7540054405242126</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.8019236752314152</v>
+        <v>0.6128012565548039</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7399807668215679</v>
+        <v>0.5723742722540257</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.4</v>
+        <v>2.6222222222222222</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.4206272622267313</v>
+        <v>1.2665071669913297</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>45.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8709765866695324</v>
+        <v>0.8756580344743565</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8809270701746749</v>
+        <v>0.8615645142181971</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.8464441720139412</v>
+        <v>0.8019236752314152</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7726818203607253</v>
+        <v>0.7399807668215679</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.2222222222222223</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.1259115274642</v>
+        <v>1.4206272622267313</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>45.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.7603692064836476</v>
+        <v>0.8709765866695324</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7540054405242126</v>
+        <v>0.8809270701746749</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6128012565548038</v>
+        <v>0.8464441720139412</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.5723742722540257</v>
+        <v>0.7726818203607253</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.6222222222222222</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.2665071669913297</v>
+        <v>1.1259115274642</v>
       </c>
     </row>
     <row r="22">
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.37777777777777777</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.24444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.06666666666666667</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.2222222222222222</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.08888888888888889</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.3333333333333333</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.26666666666666666</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.28888888888888886</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.06666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.044444444444444446</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.5555555555555556</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.08888888888888889</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="E29" t="n" s="226">
-        <v>0.08888888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.15555555555555556</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.8206243582812522</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8375809415147959</v>
+        <v>0.837580941514796</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.43261836978433443</v>
@@ -4568,7 +4244,7 @@
         <v>4.574892947660924</v>
       </c>
       <c r="F6" t="n" s="264">
-        <v>0.04356232841151554</v>
+        <v>0.04356232841151552</v>
       </c>
       <c r="G6" t="n" s="265">
         <v>2.611111111111111</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7407853944195659</v>
+        <v>0.8396643610386665</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7484580387307516</v>
+        <v>0.8428030774780109</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7630911358607129</v>
+        <v>0.8303319812611091</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.37307847425000806</v>
+        <v>0.5174419493755497</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.9754798561406144</v>
+        <v>5.36144769220986</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.06218811834005042</v>
+        <v>0.037689874296555154</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.034956861938547176</v>
+        <v>0.011801268909423413</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.4311527181697452</v>
+        <v>0.5084987467918102</v>
       </c>
     </row>
     <row r="12">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7785507830879881</v>
+        <v>0.7790278889367729</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7884106220909901</v>
+        <v>0.7853935728934214</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7979636020716425</v>
+        <v>0.8024650798768246</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.42700864654992354</v>
+        <v>0.4226123053143083</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.726135167475332</v>
+        <v>3.6596926917914545</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.05348933079276578</v>
+        <v>0.052985863399636055</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.03539742693367823</v>
+        <v>0.0512177762279629</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.4311527181697452</v>
+        <v>0.4541028438167752</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.8090099511947773</v>
+        <v>0.7407853944195659</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.8151672223084026</v>
+        <v>0.7484580387307516</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.8224543254746025</v>
+        <v>0.7630911358607129</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.4686670739473066</v>
+        <v>0.37307847425000806</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>4.410295795416488</v>
+        <v>2.9754798561406144</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.046010134302863964</v>
+        <v>0.06218811834005042</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.02980782016948701</v>
+        <v>0.034956861938547176</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.45959400933167427</v>
+        <v>0.4311527181697452</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7790278889367729</v>
+        <v>0.7785507830879881</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7853935728934214</v>
+        <v>0.7884106220909901</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.8024650798768247</v>
+        <v>0.7979636020716425</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.4226123053143083</v>
+        <v>0.42700864654992354</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.6596926917914545</v>
+        <v>3.726135167475332</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.052985863399636055</v>
+        <v>0.05348933079276578</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.0512177762279629</v>
+        <v>0.03539742693367823</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.4541028438167752</v>
+        <v>0.4311527181697452</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.8396643610386665</v>
+        <v>0.8090099511947773</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8428030774780109</v>
+        <v>0.8151672223084026</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.8303319812611091</v>
+        <v>0.8224543254746024</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.5174419493755497</v>
+        <v>0.4686670739473066</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>5.36144769220986</v>
+        <v>4.410295795416488</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.037689874296555154</v>
+        <v>0.046010134302863964</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.011801268909423412</v>
+        <v>0.02980782016948701</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.5084987467918102</v>
+        <v>0.45959400933167427</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>45.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.8580297384233686</v>
+        <v>0.5188331746715311</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.8627440350948561</v>
+        <v>0.5313644108350488</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.8553049787117373</v>
+        <v>0.4178383300187049</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.777820059868792</v>
+        <v>0.31532989161438557</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.2222222222222223</v>
+        <v>3.511111111111111</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>1.0420453856999636</v>
+        <v>1.1000459127241053</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.831013306076225</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.8125820101589295</v>
+        <v>0.8125820101589296</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.7355606066356588</v>
@@ -4895,22 +4571,22 @@
         <v>45.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7526391676769627</v>
+        <v>0.7321287055171481</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.73894983980085</v>
+        <v>0.7490414360685983</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6806017145923271</v>
+        <v>0.6751550921377949</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.60548746236356</v>
+        <v>0.6157364238374441</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.8</v>
+        <v>2.8222222222222224</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1793680896603447</v>
+        <v>0.9363587329478359</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>45.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.6637380967909258</v>
+        <v>0.8580297384233686</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.6433248625952629</v>
+        <v>0.8627440350948561</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.5455057967983242</v>
+        <v>0.8553049787117373</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.4788296548388147</v>
+        <v>0.777820059868792</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.1333333333333333</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.1984838907401452</v>
+        <v>1.0420453856999636</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>45.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.7321287055171481</v>
+        <v>0.7526391676769627</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7490414360685983</v>
+        <v>0.73894983980085</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.6751550921377948</v>
+        <v>0.6806017145923271</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.6157364238374441</v>
+        <v>0.60548746236356</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.8222222222222224</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9363587329478359</v>
+        <v>1.1793680896603447</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>45.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5188331746715311</v>
+        <v>0.6637380967909258</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5313644108350488</v>
+        <v>0.6433248625952629</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.41783833001870485</v>
+        <v>0.5455057967983243</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.31532989161438557</v>
+        <v>0.4788296548388147</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.511111111111111</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.1000459127241053</v>
+        <v>1.1984838907401452</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.24444444444444444</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.4444444444444444</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.2</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.06666666666666667</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.044444444444444446</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.13333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.3333333333333333</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.2</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.26666666666666666</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.06666666666666667</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.37777777777777777</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.3111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.17777777777777778</v>
+        <v>0.2</v>
       </c>
       <c r="E34" t="n" s="340">
         <v>0.06666666666666667</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.06666666666666667</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C35" t="n" s="338">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D35" t="n" s="339">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="n" s="340">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F35" t="n" s="341">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="C35" t="n" s="338">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="D35" t="n" s="339">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="E35" t="n" s="340">
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="F35" t="n" s="341">
-        <v>0.044444444444444446</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="C36" t="n" s="338">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="D36" t="n" s="339">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="E36" t="n" s="340">
         <v>0.06666666666666667</v>
       </c>
-      <c r="C36" t="n" s="338">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="D36" t="n" s="339">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="E36" t="n" s="340">
-        <v>0.37777777777777777</v>
-      </c>
       <c r="F36" t="n" s="341">
-        <v>0.17777777777777778</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.7998266531371554</v>
+        <v>0.6593153950953679</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8020990741286838</v>
+        <v>0.6578031687785914</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8331979030385577</v>
+        <v>0.6050844893569367</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.3666896941957872</v>
+        <v>0.39052816657158546</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>4.053033459026075</v>
+        <v>1.9222947402250454</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.044639850739907755</v>
+        <v>0.08055627352074307</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.7904761904761903</v>
+        <v>2.6592592592592594</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.6982618228743851</v>
+        <v>0.8118095788841898</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.3487400354770703</v>
+        <v>0.46786346515532823</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7379247964853339</v>
+        <v>0.3070461969202054</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7455983493322001</v>
+        <v>0.3224070401655903</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7735233163371684</v>
+        <v>0.1921843068520116</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.32816709544802514</v>
+        <v>0.1921843068520115</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>2.9307921052202994</v>
+        <v>0.4758122638174698</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.06069865500636553</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.029288668254449195</v>
-      </c>
+        <v>0.1945626749619841</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.27392761801866483</v>
+        <v>0.1921843068520114</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7499123934119846</v>
+        <v>0.5966329966329968</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7544542544416608</v>
+        <v>0.6374754549883415</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7694805674216127</v>
+        <v>0.4678634651553283</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.33866522661829507</v>
+        <v>0.4678634651553282</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.0725608897280208</v>
+        <v>1.7584339150548847</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.056492201888798076</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.0222616523948254</v>
-      </c>
+        <v>0.10670540828261332</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3272582727180965</v>
+        <v>0.46786346515532823</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7690131650527691</v>
+        <v>0.6745679012345678</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7665622149007476</v>
+        <v>0.6768432659698276</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7906302968884841</v>
+        <v>0.5115367277074169</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.35371268553580937</v>
+        <v>0.511536727707417</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.283796642325164</v>
+        <v>2.094473655333551</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.0515683493325372</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.02903160356796654</v>
-      </c>
+        <v>0.09636028966492696</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.3272582727180965</v>
+        <v>0.5115367277074169</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.817447199265381</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8189203880077095</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8458462285905403</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.42978966191677387</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.522432862527754</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.04126345990068522</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.0209373320164312</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.49643255969231254</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7642184989671792</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.766812607240102</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7842741294554357</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.3540327442840064</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>3.288396504478493</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.053103823088866256</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.02419705957396031</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.3272582727180965</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.7865825977301388</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7880869825310785</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.8056715865007273</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.382647281881806</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>3.7189172800423025</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.04882906917330496</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.02775778464671495</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.3804461800979086</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.7814109742441209</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.7860735577744523</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7993887409148438</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.3798131636857943</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.6745039537734017</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.04929086745840911</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.028202662408951494</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.3804461800979086</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>45.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.883875095139808</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8563161855895468</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.7690886062845772</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.6329028587512224</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.688888888888889</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.2214414402332974</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>45.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.771719522826292</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7370535290858033</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.5384854028166655</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.447618314086142</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.311111111111111</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.1041702401314388</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>45.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.6432949619067292</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7181598653710557</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.4904995949449382</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.38745781510294675</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.977777777777778</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.7830270194133233</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>45.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.8164284631862173</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7982261327188542</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7737062832433471</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.7003298449638007</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.688888888888889</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.2214414402332974</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.2</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.2</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>45.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7699495901876116</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7649548251376614</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7499752327767506</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.6614625391023106</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.0125475422184014</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.2</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.4</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>45.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.686876249367225</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7172655149318802</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.6672141433983415</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.5660098771134606</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.9183868157994993</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>45.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.49407552744100397</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.47615779395137237</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.32179053174462624</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.2965385919047561</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.7333333333333334</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>1.0954451150103321</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>45.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7161246867161993</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7162511655317251</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6827412716528359</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.5821124451812882</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.7111111111111112</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.057918673240963</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>45.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.5851098542225887</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6255642550455873</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5509481973372548</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.4641142814734867</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.977777777777778</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.7830270194133233</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>45.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6549655049779239</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6345463125843616</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5738603126382208</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.4937589513407633</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.311111111111111</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.1041702401314388</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
+      <c r="B27" t="n" s="451">
+        <v>0.022222222222222223</v>
+      </c>
+      <c r="C27" t="n" s="452">
         <v>0.2222222222222222</v>
       </c>
-      <c r="C33" t="n" s="452">
+      <c r="D27" t="n" s="453">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E27" t="n" s="454">
         <v>0.2</v>
       </c>
-      <c r="D33" t="n" s="453">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.2</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
+      <c r="F27" t="n" s="455">
         <v>0.022222222222222223</v>
       </c>
-      <c r="C38" t="n" s="452">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.2</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.022222222222222223</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.2</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.4</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
